--- a/notes/plan/2019/bigdata.xlsx
+++ b/notes/plan/2019/bigdata.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAE0B81-057C-474D-9DB1-8D1F12C375C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="任务面板" sheetId="1" r:id="rId1"/>
+    <sheet name="1.CloudManager" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +20,84 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>任务编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用Cloudera Manager搭建大数据集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 学习Flink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 学习Kylin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 学习Druid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 开发大数据框架data-framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 基于已经学会的大数据技术，完成一个完整项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已领取</t>
+  </si>
+  <si>
+    <t>任务内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 安装3台虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +105,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +143,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{4421301E-787B-4E41-A4C6-0F82FA24EE4A}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +490,364 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="68.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{04BF7051-F43D-45AC-B44F-1A77FF4AAE27}">
+      <formula1>"已领取,已完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'1.CloudManager'!A1" display="1. 使用Cloudera Manager搭建大数据集群" xr:uid="{32D57D73-D2A5-455B-95FD-D677F6226AEF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD9E753-FBA6-401D-BA3E-DD83EADC0424}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6">
+        <v>43591</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>